--- a/res/midland_res_area_code.xlsx
+++ b/res/midland_res_area_code.xlsx
@@ -436,27 +436,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>m_district_code</t>
+          <t>subdistrict_code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>district_id</t>
+          <t>parent_district_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>district_name</t>
+          <t>parent_district_name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>m_district</t>
+          <t>subdistrict_name</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>seq</t>
+          <t>sort_order</t>
         </is>
       </c>
     </row>
